--- a/H2495_FRA/tvd_s8.xlsx
+++ b/H2495_FRA/tvd_s8.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R6229a098433e45ed"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rd2799d5b391648a3"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -321,14 +321,14 @@
     <x:row r="6">
       <x:c r="A6" s="1" t="inlineStr">
         <x:is>
-          <x:t>Audit Number: 1005</x:t>
+          <x:t>Audit Number: 1086</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="7">
       <x:c r="A7" s="2" t="inlineStr">
         <x:is>
-          <x:t>Date: 5/3/2020 Time: 12:21 PM</x:t>
+          <x:t>Date: 5/3/2020 Time: 1:00 PM</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -431,7 +431,7 @@
     <x:row r="19">
       <x:c r="A19" s="12" t="inlineStr">
         <x:is>
-          <x:t>H2495_FRA\H2495\S8\SM</x:t>
+          <x:t>H2495_FRA\H2495\S8\EOBO\SM</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -9971,7 +9971,7 @@
     <x:row r="320">
       <x:c r="A320" s="17" t="inlineStr">
         <x:is>
-          <x:t>H2495_FRA\H2495\S8\ME</x:t>
+          <x:t>H2495_FRA\H2495\S8\EOBO\ME</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -18903,7 +18903,7 @@
     <x:row r="602">
       <x:c r="A602" s="21" t="inlineStr">
         <x:is>
-          <x:t>H2495_FRA\H2495\S8\MA</x:t>
+          <x:t>H2495_FRA\H2495\S8\EOBO\MA</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -26651,7 +26651,7 @@
     <x:row r="847">
       <x:c r="A847" s="25" t="inlineStr">
         <x:is>
-          <x:t>H2495_FRA\H2495\S8\LA</x:t>
+          <x:t>H2495_FRA\H2495\S8\EOBO\LA</x:t>
         </x:is>
       </x:c>
     </x:row>
